--- a/docs/UI_CHECKLIST_TESTER.xlsx
+++ b/docs/UI_CHECKLIST_TESTER.xlsx
@@ -477,7 +477,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G60"/>
+  <dimension ref="A1:G61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1692,30 +1692,30 @@
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>7. Project Detail</t>
+          <t>15. Other</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr">
         <is>
-          <t>Tài nguyên dự án</t>
+          <t>/projects/[id]/quality</t>
         </is>
       </c>
       <c r="D37" s="3" t="inlineStr">
         <is>
-          <t>/projects/[id]/resources</t>
+          <t>/projects/[id]/quality</t>
         </is>
       </c>
       <c r="E37" s="3" t="n">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="F37" s="3" t="inlineStr">
         <is>
-          <t>src/app/(frontend)/projects/[id]/resources/page.tsx</t>
+          <t>src/app/(frontend)/projects/[id]/quality/page.tsx</t>
         </is>
       </c>
       <c r="G37" s="3" t="inlineStr">
         <is>
-          <t>Done</t>
+          <t>Need Review</t>
         </is>
       </c>
     </row>
@@ -1725,25 +1725,25 @@
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>8. Project Settings</t>
+          <t>7. Project Detail</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>Trường tùy chỉnh</t>
+          <t>Tài nguyên dự án</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>/projects/[id]/settings/custom-fields</t>
+          <t>/projects/[id]/resources</t>
         </is>
       </c>
       <c r="E38" s="2" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>src/app/(frontend)/projects/[id]/settings/custom-fields/page.tsx</t>
+          <t>src/app/(frontend)/projects/[id]/resources/page.tsx</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
@@ -1763,20 +1763,20 @@
       </c>
       <c r="C39" s="3" t="inlineStr">
         <is>
-          <t>Phân quyền trường</t>
+          <t>Trường tùy chỉnh</t>
         </is>
       </c>
       <c r="D39" s="3" t="inlineStr">
         <is>
-          <t>/projects/[id]/settings/field-permissions</t>
+          <t>/projects/[id]/settings/custom-fields</t>
         </is>
       </c>
       <c r="E39" s="3" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="F39" s="3" t="inlineStr">
         <is>
-          <t>src/app/(frontend)/projects/[id]/settings/field-permissions/page.tsx</t>
+          <t>src/app/(frontend)/projects/[id]/settings/custom-fields/page.tsx</t>
         </is>
       </c>
       <c r="G39" s="3" t="inlineStr">
@@ -1796,20 +1796,20 @@
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>Cài đặt thông báo</t>
+          <t>Phân quyền trường</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>/projects/[id]/settings/notifications</t>
+          <t>/projects/[id]/settings/field-permissions</t>
         </is>
       </c>
       <c r="E40" s="2" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>src/app/(frontend)/projects/[id]/settings/notifications/page.tsx</t>
+          <t>src/app/(frontend)/projects/[id]/settings/field-permissions/page.tsx</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
@@ -1829,20 +1829,20 @@
       </c>
       <c r="C41" s="3" t="inlineStr">
         <is>
-          <t>Quản lý nhãn</t>
+          <t>Cài đặt thông báo</t>
         </is>
       </c>
       <c r="D41" s="3" t="inlineStr">
         <is>
-          <t>/projects/[id]/settings/tags</t>
+          <t>/projects/[id]/settings/notifications</t>
         </is>
       </c>
       <c r="E41" s="3" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F41" s="3" t="inlineStr">
         <is>
-          <t>src/app/(frontend)/projects/[id]/settings/tags/page.tsx</t>
+          <t>src/app/(frontend)/projects/[id]/settings/notifications/page.tsx</t>
         </is>
       </c>
       <c r="G41" s="3" t="inlineStr">
@@ -1857,25 +1857,25 @@
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>7. Project Detail</t>
+          <t>8. Project Settings</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>Khóa kỳ công</t>
+          <t>Quản lý nhãn</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>/projects/[id]/time-locks</t>
+          <t>/projects/[id]/settings/tags</t>
         </is>
       </c>
       <c r="E42" s="2" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>src/app/(frontend)/projects/[id]/time-locks/page.tsx</t>
+          <t>src/app/(frontend)/projects/[id]/settings/tags/page.tsx</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
@@ -1890,17 +1890,17 @@
       </c>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>6. Projects</t>
+          <t>7. Project Detail</t>
         </is>
       </c>
       <c r="C43" s="3" t="inlineStr">
         <is>
-          <t>Tạo dự án mới</t>
+          <t>Khóa kỳ công</t>
         </is>
       </c>
       <c r="D43" s="3" t="inlineStr">
         <is>
-          <t>/projects/new</t>
+          <t>/projects/[id]/time-locks</t>
         </is>
       </c>
       <c r="E43" s="3" t="n">
@@ -1908,7 +1908,7 @@
       </c>
       <c r="F43" s="3" t="inlineStr">
         <is>
-          <t>src/app/(frontend)/projects/new/page.tsx</t>
+          <t>src/app/(frontend)/projects/[id]/time-locks/page.tsx</t>
         </is>
       </c>
       <c r="G43" s="3" t="inlineStr">
@@ -1923,25 +1923,25 @@
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>15. Other</t>
+          <t>6. Projects</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>Thùng rác</t>
+          <t>Tạo dự án mới</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>/recycle-bin</t>
+          <t>/projects/new</t>
         </is>
       </c>
       <c r="E44" s="2" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>src/app/(frontend)/recycle-bin/page.tsx</t>
+          <t>src/app/(frontend)/projects/new/page.tsx</t>
         </is>
       </c>
       <c r="G44" s="2" t="inlineStr">
@@ -1956,17 +1956,17 @@
       </c>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>9. Reports</t>
+          <t>15. Other</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr">
         <is>
-          <t>Danh sách báo cáo</t>
+          <t>Thùng rác</t>
         </is>
       </c>
       <c r="D45" s="3" t="inlineStr">
         <is>
-          <t>/reports</t>
+          <t>/recycle-bin</t>
         </is>
       </c>
       <c r="E45" s="3" t="n">
@@ -1974,7 +1974,7 @@
       </c>
       <c r="F45" s="3" t="inlineStr">
         <is>
-          <t>src/app/(frontend)/reports/page.tsx</t>
+          <t>src/app/(frontend)/recycle-bin/page.tsx</t>
         </is>
       </c>
       <c r="G45" s="3" t="inlineStr">
@@ -1994,20 +1994,20 @@
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>Chi tiết báo cáo</t>
+          <t>Danh sách báo cáo</t>
         </is>
       </c>
       <c r="D46" s="2" t="inlineStr">
         <is>
-          <t>/reports/[id]</t>
+          <t>/reports</t>
         </is>
       </c>
       <c r="E46" s="2" t="n">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="F46" s="2" t="inlineStr">
         <is>
-          <t>src/app/(frontend)/reports/[id]/page.tsx</t>
+          <t>src/app/(frontend)/reports/page.tsx</t>
         </is>
       </c>
       <c r="G46" s="2" t="inlineStr">
@@ -2027,20 +2027,20 @@
       </c>
       <c r="C47" s="3" t="inlineStr">
         <is>
-          <t>Phân tích chi phí</t>
+          <t>Chi tiết báo cáo</t>
         </is>
       </c>
       <c r="D47" s="3" t="inlineStr">
         <is>
-          <t>/reports/cost-analysis</t>
+          <t>/reports/[id]</t>
         </is>
       </c>
       <c r="E47" s="3" t="n">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="F47" s="3" t="inlineStr">
         <is>
-          <t>src/app/(frontend)/reports/cost-analysis/page.tsx</t>
+          <t>src/app/(frontend)/reports/[id]/page.tsx</t>
         </is>
       </c>
       <c r="G47" s="3" t="inlineStr">
@@ -2060,20 +2060,20 @@
       </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>Tạo báo cáo mới</t>
+          <t>Phân tích chi phí</t>
         </is>
       </c>
       <c r="D48" s="2" t="inlineStr">
         <is>
-          <t>/reports/new</t>
+          <t>/reports/cost-analysis</t>
         </is>
       </c>
       <c r="E48" s="2" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F48" s="2" t="inlineStr">
         <is>
-          <t>src/app/(frontend)/reports/new/page.tsx</t>
+          <t>src/app/(frontend)/reports/cost-analysis/page.tsx</t>
         </is>
       </c>
       <c r="G48" s="2" t="inlineStr">
@@ -2093,12 +2093,12 @@
       </c>
       <c r="C49" s="3" t="inlineStr">
         <is>
-          <t>Báo cáo hiệu suất</t>
+          <t>Tạo báo cáo mới</t>
         </is>
       </c>
       <c r="D49" s="3" t="inlineStr">
         <is>
-          <t>/reports/performance</t>
+          <t>/reports/new</t>
         </is>
       </c>
       <c r="E49" s="3" t="n">
@@ -2106,7 +2106,7 @@
       </c>
       <c r="F49" s="3" t="inlineStr">
         <is>
-          <t>src/app/(frontend)/reports/performance/page.tsx</t>
+          <t>src/app/(frontend)/reports/new/page.tsx</t>
         </is>
       </c>
       <c r="G49" s="3" t="inlineStr">
@@ -2121,25 +2121,25 @@
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>3. Authentication</t>
+          <t>9. Reports</t>
         </is>
       </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>Đặt lại mật khẩu</t>
+          <t>Báo cáo hiệu suất</t>
         </is>
       </c>
       <c r="D50" s="2" t="inlineStr">
         <is>
-          <t>/reset-password</t>
+          <t>/reports/performance</t>
         </is>
       </c>
       <c r="E50" s="2" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F50" s="2" t="inlineStr">
         <is>
-          <t>src/app/(frontend)/(auth)/reset-password/page.tsx</t>
+          <t>src/app/(frontend)/reports/performance/page.tsx</t>
         </is>
       </c>
       <c r="G50" s="2" t="inlineStr">
@@ -2154,25 +2154,25 @@
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>12. Settings</t>
+          <t>3. Authentication</t>
         </is>
       </c>
       <c r="C51" s="3" t="inlineStr">
         <is>
-          <t>Khóa tự động</t>
+          <t>Đặt lại mật khẩu</t>
         </is>
       </c>
       <c r="D51" s="3" t="inlineStr">
         <is>
-          <t>/settings/auto-lock</t>
+          <t>/reset-password</t>
         </is>
       </c>
       <c r="E51" s="3" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F51" s="3" t="inlineStr">
         <is>
-          <t>src/app/(frontend)/settings/auto-lock/page.tsx</t>
+          <t>src/app/(frontend)/(auth)/reset-password/page.tsx</t>
         </is>
       </c>
       <c r="G51" s="3" t="inlineStr">
@@ -2192,20 +2192,20 @@
       </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>Danh mục hệ thống</t>
+          <t>Khóa tự động</t>
         </is>
       </c>
       <c r="D52" s="2" t="inlineStr">
         <is>
-          <t>/settings/lookups</t>
+          <t>/settings/auto-lock</t>
         </is>
       </c>
       <c r="E52" s="2" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F52" s="2" t="inlineStr">
         <is>
-          <t>src/app/(frontend)/settings/lookups/page.tsx</t>
+          <t>src/app/(frontend)/settings/auto-lock/page.tsx</t>
         </is>
       </c>
       <c r="G52" s="2" t="inlineStr">
@@ -2225,20 +2225,20 @@
       </c>
       <c r="C53" s="3" t="inlineStr">
         <is>
-          <t>Hồ sơ cá nhân</t>
+          <t>Danh mục hệ thống</t>
         </is>
       </c>
       <c r="D53" s="3" t="inlineStr">
         <is>
-          <t>/settings/profile</t>
+          <t>/settings/lookups</t>
         </is>
       </c>
       <c r="E53" s="3" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F53" s="3" t="inlineStr">
         <is>
-          <t>src/app/(frontend)/settings/profile/page.tsx</t>
+          <t>src/app/(frontend)/settings/lookups/page.tsx</t>
         </is>
       </c>
       <c r="G53" s="3" t="inlineStr">
@@ -2258,20 +2258,20 @@
       </c>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>Thùng rác Settings</t>
+          <t>Hồ sơ cá nhân</t>
         </is>
       </c>
       <c r="D54" s="2" t="inlineStr">
         <is>
-          <t>/settings/recycle-bin</t>
+          <t>/settings/profile</t>
         </is>
       </c>
       <c r="E54" s="2" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F54" s="2" t="inlineStr">
         <is>
-          <t>src/app/(frontend)/settings/recycle-bin/page.tsx</t>
+          <t>src/app/(frontend)/settings/profile/page.tsx</t>
         </is>
       </c>
       <c r="G54" s="2" t="inlineStr">
@@ -2291,20 +2291,20 @@
       </c>
       <c r="C55" s="3" t="inlineStr">
         <is>
-          <t>Cài đặt Workspace</t>
+          <t>Thùng rác Settings</t>
         </is>
       </c>
       <c r="D55" s="3" t="inlineStr">
         <is>
-          <t>/settings/workspace</t>
+          <t>/settings/recycle-bin</t>
         </is>
       </c>
       <c r="E55" s="3" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F55" s="3" t="inlineStr">
         <is>
-          <t>src/app/(frontend)/settings/workspace/page.tsx</t>
+          <t>src/app/(frontend)/settings/recycle-bin/page.tsx</t>
         </is>
       </c>
       <c r="G55" s="3" t="inlineStr">
@@ -2319,25 +2319,25 @@
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>5. Tasks</t>
+          <t>12. Settings</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>Danh sách công việc</t>
+          <t>Cài đặt Workspace</t>
         </is>
       </c>
       <c r="D56" s="2" t="inlineStr">
         <is>
-          <t>/tasks</t>
+          <t>/settings/workspace</t>
         </is>
       </c>
       <c r="E56" s="2" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F56" s="2" t="inlineStr">
         <is>
-          <t>src/app/(frontend)/tasks/page.tsx</t>
+          <t>src/app/(frontend)/settings/workspace/page.tsx</t>
         </is>
       </c>
       <c r="G56" s="2" t="inlineStr">
@@ -2357,20 +2357,20 @@
       </c>
       <c r="C57" s="3" t="inlineStr">
         <is>
-          <t>Chi tiết công việc</t>
+          <t>Danh sách công việc</t>
         </is>
       </c>
       <c r="D57" s="3" t="inlineStr">
         <is>
-          <t>/tasks/[id]</t>
+          <t>/tasks</t>
         </is>
       </c>
       <c r="E57" s="3" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F57" s="3" t="inlineStr">
         <is>
-          <t>src/app/(frontend)/tasks/[id]/page.tsx</t>
+          <t>src/app/(frontend)/tasks/page.tsx</t>
         </is>
       </c>
       <c r="G57" s="3" t="inlineStr">
@@ -2390,20 +2390,20 @@
       </c>
       <c r="C58" s="2" t="inlineStr">
         <is>
-          <t>Kanban công việc</t>
+          <t>Chi tiết công việc</t>
         </is>
       </c>
       <c r="D58" s="2" t="inlineStr">
         <is>
-          <t>/tasks/kanban</t>
+          <t>/tasks/[id]</t>
         </is>
       </c>
       <c r="E58" s="2" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F58" s="2" t="inlineStr">
         <is>
-          <t>src/app/(frontend)/tasks/kanban/page.tsx</t>
+          <t>src/app/(frontend)/tasks/[id]/page.tsx</t>
         </is>
       </c>
       <c r="G58" s="2" t="inlineStr">
@@ -2423,20 +2423,20 @@
       </c>
       <c r="C59" s="3" t="inlineStr">
         <is>
-          <t>Tạo công việc mới</t>
+          <t>Kanban công việc</t>
         </is>
       </c>
       <c r="D59" s="3" t="inlineStr">
         <is>
-          <t>/tasks/new</t>
+          <t>/tasks/kanban</t>
         </is>
       </c>
       <c r="E59" s="3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F59" s="3" t="inlineStr">
         <is>
-          <t>src/app/(frontend)/tasks/new/page.tsx</t>
+          <t>src/app/(frontend)/tasks/kanban/page.tsx</t>
         </is>
       </c>
       <c r="G59" s="3" t="inlineStr">
@@ -2451,28 +2451,61 @@
       </c>
       <c r="B60" s="2" t="inlineStr">
         <is>
+          <t>5. Tasks</t>
+        </is>
+      </c>
+      <c r="C60" s="2" t="inlineStr">
+        <is>
+          <t>Tạo công việc mới</t>
+        </is>
+      </c>
+      <c r="D60" s="2" t="inlineStr">
+        <is>
+          <t>/tasks/new</t>
+        </is>
+      </c>
+      <c r="E60" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="F60" s="2" t="inlineStr">
+        <is>
+          <t>src/app/(frontend)/tasks/new/page.tsx</t>
+        </is>
+      </c>
+      <c r="G60" s="2" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" s="3" t="inlineStr">
+        <is>
           <t>11. Time &amp; Activity</t>
         </is>
       </c>
-      <c r="C60" s="2" t="inlineStr">
+      <c r="C61" s="3" t="inlineStr">
         <is>
           <t>Nhật ký thời gian</t>
         </is>
       </c>
-      <c r="D60" s="2" t="inlineStr">
+      <c r="D61" s="3" t="inlineStr">
         <is>
           <t>/time-logs</t>
         </is>
       </c>
-      <c r="E60" s="2" t="n">
+      <c r="E61" s="3" t="n">
         <v>23</v>
       </c>
-      <c r="F60" s="2" t="inlineStr">
+      <c r="F61" s="3" t="inlineStr">
         <is>
           <t>src/app/(frontend)/time-logs/page.tsx</t>
         </is>
       </c>
-      <c r="G60" s="2" t="inlineStr">
+      <c r="G61" s="3" t="inlineStr">
         <is>
           <t>Done</t>
         </is>
@@ -42463,7 +42496,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
@@ -42473,7 +42506,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1044</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="5">
@@ -42483,7 +42516,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>17.7</v>
+        <v>17.4</v>
       </c>
     </row>
     <row r="6">
@@ -42646,7 +42679,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C60"/>
+  <dimension ref="A1:C61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43200,97 +43233,97 @@
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>src/app/(frontend)/projects/[id]/resources/page.tsx</t>
+          <t>src/app/(frontend)/projects/[id]/quality/page.tsx</t>
         </is>
       </c>
       <c r="B37" s="2" t="n">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>project-resources-page, project-resources-page-title, btn-add-resource, stat-git, stat-deploy, stat-doc, stat-api, resources-card, project-resources-loading-skeleton, resources-table, project-resources-empty-state, btn-add-first, resource-dialog, select-type, project-resources-input-name, input-url, project-resources-input-description, project-resources-btn-cancel, project-resources-btn-submit, resource-row-${resource.id}, resource-name-${resource.id}, btn-copy-${resource.id}, resource-actions-${resource.id}, btn-open-${resource.id}, btn-edit-${resource.id}, btn-delete-${resource.id}</t>
+          <t>bug-fix-rate-progress, bug-list-table</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>src/app/(frontend)/projects/[id]/settings/custom-fields/page.tsx</t>
+          <t>src/app/(frontend)/projects/[id]/resources/page.tsx</t>
         </is>
       </c>
       <c r="B38" s="2" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>custom-fields-page, project-custom-fields-page-title, btn-create-field, fields-card, project-custom-fields-loading-skeleton, fields-table, project-custom-fields-empty-state, field-dialog, input-field-name, select-field-type, input-options, input-default-value, checkbox-required, project-custom-fields-btn-cancel, project-custom-fields-btn-submit, field-row-${field.id}, field-name-${field.id}, field-type-${field.id}, field-actions-${field.id}, btn-edit-${field.id}, btn-delete-${field.id}</t>
+          <t>project-resources-page, project-resources-page-title, btn-add-resource, stat-git, stat-deploy, stat-doc, stat-api, resources-card, project-resources-loading-skeleton, resources-table, project-resources-empty-state, btn-add-first, resource-dialog, select-type, project-resources-input-name, input-url, project-resources-input-description, project-resources-btn-cancel, project-resources-btn-submit, resource-row-${resource.id}, resource-name-${resource.id}, btn-copy-${resource.id}, resource-actions-${resource.id}, btn-open-${resource.id}, btn-edit-${resource.id}, btn-delete-${resource.id}</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>src/app/(frontend)/projects/[id]/settings/field-permissions/page.tsx</t>
+          <t>src/app/(frontend)/projects/[id]/settings/custom-fields/page.tsx</t>
         </is>
       </c>
       <c r="B39" s="2" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>field-permissions-container, field-permissions-title, save-permissions-btn, permissions-matrix, perm-${member.id}-${field.id}</t>
+          <t>custom-fields-page, project-custom-fields-page-title, btn-create-field, fields-card, project-custom-fields-loading-skeleton, fields-table, project-custom-fields-empty-state, field-dialog, input-field-name, select-field-type, input-options, input-default-value, checkbox-required, project-custom-fields-btn-cancel, project-custom-fields-btn-submit, field-row-${field.id}, field-name-${field.id}, field-type-${field.id}, field-actions-${field.id}, btn-edit-${field.id}, btn-delete-${field.id}</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>src/app/(frontend)/projects/[id]/settings/notifications/page.tsx</t>
+          <t>src/app/(frontend)/projects/[id]/settings/field-permissions/page.tsx</t>
         </is>
       </c>
       <c r="B40" s="2" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>notification-settings-page, project-notifications-page-title, btn-save, summary-card, settings-card, project-notifications-loading-skeleton, settings-list, help-card, setting-row-${setting.key}, switch-email-${setting.key}, switch-push-${setting.key}, switch-inapp-${setting.key}</t>
+          <t>field-permissions-container, field-permissions-title, save-permissions-btn, permissions-matrix, perm-${member.id}-${field.id}</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>src/app/(frontend)/projects/[id]/settings/tags/page.tsx</t>
+          <t>src/app/(frontend)/projects/[id]/settings/notifications/page.tsx</t>
         </is>
       </c>
       <c r="B41" s="2" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>tag-management-page, project-tags-page-title, btn-create-tag, project-tags-search-card, project-tags-input-search, tags-card, project-tags-loading-skeleton, tags-grid, project-tags-empty-state, tag-dialog, input-tag-name, input-custom-color, input-color-hex, project-tags-btn-cancel, project-tags-btn-submit, tag-card-${tag.id}, tag-actions-${tag.id}, btn-edit-${tag.id}, btn-delete-${tag.id}, tag-name-${tag.id}, tag-count-${tag.id}, color-${color}</t>
+          <t>notification-settings-page, project-notifications-page-title, btn-save, summary-card, settings-card, project-notifications-loading-skeleton, settings-list, help-card, setting-row-${setting.key}, switch-email-${setting.key}, switch-push-${setting.key}, switch-inapp-${setting.key}</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>src/app/(frontend)/projects/[id]/time-locks/page.tsx</t>
+          <t>src/app/(frontend)/projects/[id]/settings/tags/page.tsx</t>
         </is>
       </c>
       <c r="B42" s="2" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>time-locks-container, time-locks-title, create-lock-btn, create-lock-dialog, lock-start-date, lock-end-date, confirm-create-lock, locks-list, locks-empty-state, lock-item-${lock.id}, toggle-lock-${lock.id}</t>
+          <t>tag-management-page, project-tags-page-title, btn-create-tag, project-tags-search-card, project-tags-input-search, tags-card, project-tags-loading-skeleton, tags-grid, project-tags-empty-state, tag-dialog, input-tag-name, input-custom-color, input-color-hex, project-tags-btn-cancel, project-tags-btn-submit, tag-card-${tag.id}, tag-actions-${tag.id}, btn-edit-${tag.id}, btn-delete-${tag.id}, tag-name-${tag.id}, tag-count-${tag.id}, color-${color}</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>src/app/(frontend)/projects/new/page.tsx</t>
+          <t>src/app/(frontend)/projects/[id]/time-locks/page.tsx</t>
         </is>
       </c>
       <c r="B43" s="2" t="n">
@@ -43298,29 +43331,29 @@
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>new-project-container, new-project-title, input-project-name, input-project-code, input-start-date, input-end-date, project-new-input-description, search-members, members-list, btn-submit-project, member-item-${u.id}</t>
+          <t>time-locks-container, time-locks-title, create-lock-btn, create-lock-dialog, lock-start-date, lock-end-date, confirm-create-lock, locks-list, locks-empty-state, lock-item-${lock.id}, toggle-lock-${lock.id}</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>src/app/(frontend)/recycle-bin/page.tsx</t>
+          <t>src/app/(frontend)/projects/new/page.tsx</t>
         </is>
       </c>
       <c r="B44" s="2" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>recycle-bin-container, recycle-bin-title, btn-empty-all, recycle-filters, recycle-bin-filter-type, btn-select-all, bulk-actions, btn-bulk-restore, btn-bulk-delete, recycle-loading, recycle-list, recycle-empty, dialog-confirm-delete, btn-cancel-delete, btn-confirm-delete, dialog-confirm-empty, btn-cancel-empty, btn-confirm-empty, recycle-item-${item.id}, checkbox-${item.id}, btn-restore-${item.id}, btn-delete-${item.id}</t>
+          <t>new-project-container, new-project-title, input-project-name, input-project-code, input-start-date, input-end-date, project-new-input-description, search-members, members-list, btn-submit-project, member-item-${u.id}</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>src/app/(frontend)/reports/page.tsx</t>
+          <t>src/app/(frontend)/recycle-bin/page.tsx</t>
         </is>
       </c>
       <c r="B45" s="2" t="n">
@@ -43328,59 +43361,59 @@
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>reports-page-container, reports-page-title, btn-export-reports, btn-create-report, report-filters, reports-input-search, reports-filter-status, reports-filter-type, reports-btn-search, reports-loading, reports-list, reports-empty, btn-create-report-empty, dialog-create-report, input-period-start, input-period-end, reports-input-title, input-content, reports-btn-cancel, btn-save-draft, reports-btn-submit, report-card-${report.id}</t>
+          <t>recycle-bin-container, recycle-bin-title, btn-empty-all, recycle-filters, recycle-bin-filter-type, btn-select-all, bulk-actions, btn-bulk-restore, btn-bulk-delete, recycle-loading, recycle-list, recycle-empty, dialog-confirm-delete, btn-cancel-delete, btn-confirm-delete, dialog-confirm-empty, btn-cancel-empty, btn-confirm-empty, recycle-item-${item.id}, checkbox-${item.id}, btn-restore-${item.id}, btn-delete-${item.id}</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>src/app/(frontend)/reports/[id]/page.tsx</t>
+          <t>src/app/(frontend)/reports/page.tsx</t>
         </is>
       </c>
       <c r="B46" s="2" t="n">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>report-detail-loading, report-not-found, btn-back-to-list, report-detail-page, report-header, btn-back, btn-export-pdf, badge-approved, badge-pending, report-content-card, report-author, author-name, author-email, report-title, report-meta, report-period, report-type, report-body, reaction-section, reaction-buttons, report-timestamp, comments-section, comments-count, comment-form, input-comment, btn-submit-comment, comments-list, no-comments, btn-reaction-${r.code.toLowerCase()}, reaction-count-${r.code.toLowerCase()}, comment-${comment.id}, comment-author-${comment.id}, comment-content-${comment.id}</t>
+          <t>reports-page-container, reports-page-title, btn-export-reports, btn-create-report, report-filters, reports-input-search, reports-filter-status, reports-filter-type, reports-btn-search, reports-loading, reports-list, reports-empty, btn-create-report-empty, dialog-create-report, input-period-start, input-period-end, reports-input-title, input-content, reports-btn-cancel, btn-save-draft, reports-btn-submit, report-card-${report.id}</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>src/app/(frontend)/reports/cost-analysis/page.tsx</t>
+          <t>src/app/(frontend)/reports/[id]/page.tsx</t>
         </is>
       </c>
       <c r="B47" s="2" t="n">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>org-cost-analysis-page, reports-cost-page-title, reports-cost-select-time-range, btn-export, reports-cost-loading-skeleton, stat-total-cost, stat-total-hours, stat-employees, stat-avg-hourly, department-breakdown-card, department-list, employee-details-card, reports-cost-input-search, filter-department, employees-table, dept-${dept.department}, emp-row-${emp.user_id}</t>
+          <t>report-detail-loading, report-not-found, btn-back-to-list, report-detail-page, report-header, btn-back, btn-export-pdf, badge-approved, badge-pending, report-content-card, report-author, author-name, author-email, report-title, report-meta, report-period, report-type, report-body, reaction-section, reaction-buttons, report-timestamp, comments-section, comments-count, comment-form, input-comment, btn-submit-comment, comments-list, no-comments, btn-reaction-${r.code.toLowerCase()}, reaction-count-${r.code.toLowerCase()}, comment-${comment.id}, comment-author-${comment.id}, comment-content-${comment.id}</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>src/app/(frontend)/reports/new/page.tsx</t>
+          <t>src/app/(frontend)/reports/cost-analysis/page.tsx</t>
         </is>
       </c>
       <c r="B48" s="2" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>create-report-container, create-report-title, report-form-card, select-report-type, input-period-start, input-period-end, input-report-title, input-report-content, upload-area, btn-cancel, btn-save-draft, btn-submit-report</t>
+          <t>org-cost-analysis-page, reports-cost-page-title, reports-cost-select-time-range, btn-export, reports-cost-loading-skeleton, stat-total-cost, stat-total-hours, stat-employees, stat-avg-hourly, department-breakdown-card, department-list, employee-details-card, reports-cost-input-search, filter-department, employees-table, dept-${dept.department}, emp-row-${emp.user_id}</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>src/app/(frontend)/reports/performance/page.tsx</t>
+          <t>src/app/(frontend)/reports/new/page.tsx</t>
         </is>
       </c>
       <c r="B49" s="2" t="n">
@@ -43388,170 +43421,185 @@
       </c>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>performance-dashboard-container, performance-title, select-time-range, btn-export-performance, stat-tasks-completed, stat-ontime-rate, stat-total-hours, stat-active-members, chart-productivity-trend, chart-workload-distribution, table-member-performance, btn-view-profile-${i}</t>
+          <t>create-report-container, create-report-title, report-form-card, select-report-type, input-period-start, input-period-end, input-report-title, input-report-content, upload-area, btn-cancel, btn-save-draft, btn-submit-report</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>src/app/(frontend)/(auth)/reset-password/page.tsx</t>
+          <t>src/app/(frontend)/reports/performance/page.tsx</t>
         </is>
       </c>
       <c r="B50" s="2" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>reset-loading, reset-invalid-state, request-new-link, back-to-login-invalid, reset-success-state, success-login-button, reset-form-container, reset-password-title, reset-error-alert, reset-form, new-password-input, password-error, confirm-password-input, confirm-error, reset-submit-button, back-to-login-link, reset-password-container, reset-password-card</t>
+          <t>performance-dashboard-container, performance-title, select-time-range, btn-export-performance, stat-tasks-completed, stat-ontime-rate, stat-total-hours, stat-active-members, chart-productivity-trend, chart-workload-distribution, table-member-performance, btn-view-profile-${i}</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>src/app/(frontend)/settings/auto-lock/page.tsx</t>
+          <t>src/app/(frontend)/(auth)/reset-password/page.tsx</t>
         </is>
       </c>
       <c r="B51" s="2" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>auto-lock-schedule-page, settings-autolock-page-title, btn-create-schedule, info-banner, schedules-card, settings-autolock-loading-skeleton, schedules-table, settings-autolock-empty-state, schedule-dialog, settings-autolock-input-name, select-period, select-weekday, input-monthday, input-time, input-notification-days, settings-autolock-btn-cancel, settings-autolock-btn-submit, schedule-row-${schedule.id}, schedule-name-${schedule.id}, switch-active-${schedule.id}, schedule-actions-${schedule.id}, btn-run-${schedule.id}, btn-edit-${schedule.id}, btn-delete-${schedule.id}</t>
+          <t>reset-loading, reset-invalid-state, request-new-link, back-to-login-invalid, reset-success-state, success-login-button, reset-form-container, reset-password-title, reset-error-alert, reset-form, new-password-input, password-error, confirm-password-input, confirm-error, reset-submit-button, back-to-login-link, reset-password-container, reset-password-card</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>src/app/(frontend)/settings/lookups/page.tsx</t>
+          <t>src/app/(frontend)/settings/auto-lock/page.tsx</t>
         </is>
       </c>
       <c r="B52" s="2" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>lookup-management-page, settings-lookups-page-title, btn-create-lookup, lookup-tabs-card, lookup-tabs, tab-statuses, tab-priorities, tab-types, settings-lookups-loading-skeleton, lookup-dialog, input-code, settings-lookups-input-name, input-color, input-color-hex, settings-lookups-btn-cancel, settings-lookups-btn-submit, settings-lookups-empty-state, lookup-table, lookup-row-${item.code}, lookup-code-${item.code}, lookup-name-${item.code}, lookup-color-${item.code}, lookup-actions-${item.code}, btn-edit-${item.code}, btn-delete-${item.code}</t>
+          <t>auto-lock-schedule-page, settings-autolock-page-title, btn-create-schedule, info-banner, schedules-card, settings-autolock-loading-skeleton, schedules-table, settings-autolock-empty-state, schedule-dialog, settings-autolock-input-name, select-period, select-weekday, input-monthday, input-time, input-notification-days, settings-autolock-btn-cancel, settings-autolock-btn-submit, schedule-row-${schedule.id}, schedule-name-${schedule.id}, switch-active-${schedule.id}, schedule-actions-${schedule.id}, btn-run-${schedule.id}, btn-edit-${schedule.id}, btn-delete-${schedule.id}</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>src/app/(frontend)/settings/profile/page.tsx</t>
+          <t>src/app/(frontend)/settings/lookups/page.tsx</t>
         </is>
       </c>
       <c r="B53" s="2" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C53" s="2" t="inlineStr">
         <is>
-          <t>settings-profile-container, settings-profile-title, settings-tabs, tab-content-profile, btn-change-avatar, profile-success, input-full-name, input-email, input-phone, input-birth-date, input-address, settings-profile-btn-cancel, btn-save-profile, tab-content-security, password-success, input-current-password, input-new-password, input-confirm-password, btn-change-password, tab-content-notifications, checkbox-email-task-assigned, checkbox-email-comments, checkbox-email-status, checkbox-email-weekly, checkbox-inapp-all, checkbox-inapp-badge, checkbox-inapp-sound, btn-save-notifications, tab-${tab.id}</t>
+          <t>lookup-management-page, settings-lookups-page-title, btn-create-lookup, lookup-tabs-card, lookup-tabs, tab-statuses, tab-priorities, tab-types, settings-lookups-loading-skeleton, lookup-dialog, input-code, settings-lookups-input-name, input-color, input-color-hex, settings-lookups-btn-cancel, settings-lookups-btn-submit, settings-lookups-empty-state, lookup-table, lookup-row-${item.code}, lookup-code-${item.code}, lookup-name-${item.code}, lookup-color-${item.code}, lookup-actions-${item.code}, btn-edit-${item.code}, btn-delete-${item.code}</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>src/app/(frontend)/settings/recycle-bin/page.tsx</t>
+          <t>src/app/(frontend)/settings/profile/page.tsx</t>
         </is>
       </c>
       <c r="B54" s="2" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>org-recycle-bin-page, settings-recycle-page-title, btn-bulk-restore, settings-recycle-btn-refresh, settings-recycle-stat-users, settings-recycle-stat-projects, stat-tasks, stat-reports, settings-recycle-search-card, settings-recycle-input-search, btn-clear-filter, items-card, checkbox-select-all, settings-recycle-loading-skeleton, items-table, settings-recycle-empty-state, confirm-dialog, settings-recycle-btn-cancel, btn-confirm, item-row-${item.id}, checkbox-${item.id}, item-name-${item.id}, btn-restore-${item.id}, btn-delete-${item.id}</t>
+          <t>settings-profile-container, settings-profile-title, settings-tabs, tab-content-profile, btn-change-avatar, profile-success, input-full-name, input-email, input-phone, input-birth-date, input-address, settings-profile-btn-cancel, btn-save-profile, tab-content-security, password-success, input-current-password, input-new-password, input-confirm-password, btn-change-password, tab-content-notifications, checkbox-email-task-assigned, checkbox-email-comments, checkbox-email-status, checkbox-email-weekly, checkbox-inapp-all, checkbox-inapp-badge, checkbox-inapp-sound, btn-save-notifications, tab-${tab.id}</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>src/app/(frontend)/settings/workspace/page.tsx</t>
+          <t>src/app/(frontend)/settings/recycle-bin/page.tsx</t>
         </is>
       </c>
       <c r="B55" s="2" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C55" s="2" t="inlineStr">
         <is>
-          <t>workspace-settings-container, workspace-settings-title, save-workspace-btn, settings-tabs, input-org-name, select-timezone, card-working-schedule, toggle-autolock, select-lock-day, add-project-type, add-skill-group, day-${day.key}</t>
+          <t>org-recycle-bin-page, settings-recycle-page-title, btn-bulk-restore, settings-recycle-btn-refresh, settings-recycle-stat-users, settings-recycle-stat-projects, stat-tasks, stat-reports, settings-recycle-search-card, settings-recycle-input-search, btn-clear-filter, items-card, checkbox-select-all, settings-recycle-loading-skeleton, items-table, settings-recycle-empty-state, confirm-dialog, settings-recycle-btn-cancel, btn-confirm, item-row-${item.id}, checkbox-${item.id}, item-name-${item.id}, btn-restore-${item.id}, btn-delete-${item.id}</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>src/app/(frontend)/tasks/page.tsx</t>
+          <t>src/app/(frontend)/settings/workspace/page.tsx</t>
         </is>
       </c>
       <c r="B56" s="2" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>tasks-page-container, tasks-page-title, create-task-button, task-search-input, status-filter-trigger, priority-filter-trigger, active-filters, btn-view-grid, btn-view-list, tasks-grid, tasks-list, tasks-empty-state, task-card-${task.id}, task-progress-${task.id}</t>
+          <t>workspace-settings-container, workspace-settings-title, save-workspace-btn, settings-tabs, input-org-name, select-timezone, card-working-schedule, toggle-autolock, select-lock-day, add-project-type, add-skill-group, day-${day.key}</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>src/app/(frontend)/tasks/[id]/page.tsx</t>
+          <t>src/app/(frontend)/tasks/page.tsx</t>
         </is>
       </c>
       <c r="B57" s="2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t>task-detail-container, detail-status, detail-priority, detail-title, log-time-btn, detail-description, add-subtask-btn, subtasks-list, comments-feed, comment-textarea, send-comment-btn, complete-task-btn, detail-assignees, upload-file-btn, subtask-item-${sub.id}</t>
+          <t>tasks-page-container, tasks-page-title, create-task-button, task-search-input, status-filter-trigger, priority-filter-trigger, active-filters, btn-view-grid, btn-view-list, tasks-grid, tasks-list, tasks-empty-state, task-card-${task.id}, task-progress-${task.id}</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>src/app/(frontend)/tasks/kanban/page.tsx</t>
+          <t>src/app/(frontend)/tasks/[id]/page.tsx</t>
         </is>
       </c>
       <c r="B58" s="2" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C58" s="2" t="inlineStr">
         <is>
-          <t>kanban-loading-skeleton, kanban-page-container, kanban-header, kanban-page-title, kanban-filter-btn, kanban-add-task-btn, kanban-board, kanban-task-card-${task.id}, task-project-code-${task.id}, task-menu-btn-${task.id}, task-title-${task.id}, task-comments-${task.id}, task-attachments-${task.id}, task-due-date-${task.id}, kanban-column-${col.id.toLowerCase()}, kanban-column-header-${col.id.toLowerCase()}, kanban-column-count-${col.id.toLowerCase()}, kanban-column-add-${col.id.toLowerCase()}, kanban-column-tasks-${col.id.toLowerCase()}, kanban-column-empty-${col.id.toLowerCase()}</t>
+          <t>task-detail-container, detail-status, detail-priority, detail-title, log-time-btn, detail-description, add-subtask-btn, subtasks-list, comments-feed, comment-textarea, send-comment-btn, complete-task-btn, detail-assignees, upload-file-btn, subtask-item-${sub.id}</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>src/app/(frontend)/tasks/new/page.tsx</t>
+          <t>src/app/(frontend)/tasks/kanban/page.tsx</t>
         </is>
       </c>
       <c r="B59" s="2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C59" s="2" t="inlineStr">
         <is>
-          <t>create-task-container, link-back-tasks, create-task-title, create-task-form, form-error, select-project, task-new-input-title, task-new-input-description, select-status, select-priority, select-type, input-start-date, input-due-date, assignees-list, tags-list, task-new-btn-cancel, task-new-btn-submit, assignee-${member.id}, tag-${tag.id}</t>
+          <t>kanban-loading-skeleton, kanban-page-container, kanban-header, kanban-page-title, kanban-filter-btn, kanban-add-task-btn, kanban-board, kanban-task-card-${task.id}, task-project-code-${task.id}, task-menu-btn-${task.id}, task-title-${task.id}, task-comments-${task.id}, task-attachments-${task.id}, task-due-date-${task.id}, kanban-column-${col.id.toLowerCase()}, kanban-column-header-${col.id.toLowerCase()}, kanban-column-count-${col.id.toLowerCase()}, kanban-column-add-${col.id.toLowerCase()}, kanban-column-tasks-${col.id.toLowerCase()}, kanban-column-empty-${col.id.toLowerCase()}</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
+          <t>src/app/(frontend)/tasks/new/page.tsx</t>
+        </is>
+      </c>
+      <c r="B60" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="C60" s="2" t="inlineStr">
+        <is>
+          <t>create-task-container, link-back-tasks, create-task-title, create-task-form, form-error, select-project, task-new-input-title, task-new-input-description, select-status, select-priority, select-type, input-start-date, input-due-date, assignees-list, tags-list, task-new-btn-cancel, task-new-btn-submit, assignee-${member.id}, tag-${tag.id}</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="inlineStr">
+        <is>
           <t>src/app/(frontend)/time-logs/page.tsx</t>
         </is>
       </c>
-      <c r="B60" s="2" t="n">
+      <c r="B61" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="C60" s="2" t="inlineStr">
+      <c r="C61" s="2" t="inlineStr">
         <is>
           <t>timelogs-page-container, timelogs-page-title, btn-log-time, week-navigator, btn-prev-week, week-total, btn-next-week, timelogs-loading, timelogs-list, timelogs-empty, btn-log-time-empty, dialog-log-time, select-task, input-work-date, input-hours, input-minutes, input-note, timelogs-btn-cancel, timelogs-btn-submit, timelog-entry-${entry.id}, btn-edit-${entry.id}, btn-delete-${entry.id}, day-group-${date}</t>
         </is>
